--- a/data-raw/Revert_Data.xlsx
+++ b/data-raw/Revert_Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Changes</t>
   </si>
@@ -20,7 +20,13 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Basis</t>
+  </si>
+  <si>
+    <t>Verandering 1</t>
   </si>
 </sst>
 </file>
@@ -82,7 +88,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Revert_Data.xlsx
+++ b/data-raw/Revert_Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Changes</t>
   </si>
@@ -23,10 +23,16 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Basis</t>
   </si>
   <si>
     <t>Verandering 1</t>
+  </si>
+  <si>
+    <t>Verandering 2</t>
   </si>
 </sst>
 </file>
@@ -88,7 +94,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -96,7 +102,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
